--- a/monthly_salaries.xlsx
+++ b/monthly_salaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Dropbox\MISC\finmodel basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20828586-6A25-42BA-8E9B-821B8591A3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C97D76-CA7C-4F9E-9C22-140A339D5645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{09BE3C2B-3846-4B87-BA0B-C5E053C3CDD6}"/>
+    <workbookView xWindow="2310" yWindow="3960" windowWidth="15825" windowHeight="9525" activeTab="1" xr2:uid="{09BE3C2B-3846-4B87-BA0B-C5E053C3CDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -161,43 +161,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -257,7 +221,7 @@
     <tableColumn id="1" xr3:uid="{1A1EA38F-45AD-4EA3-8218-C30153D705D6}" name="id"/>
     <tableColumn id="2" xr3:uid="{136A3B6C-7DC2-4391-9E63-B4330CA4FBB8}" name="position"/>
     <tableColumn id="3" xr3:uid="{8D21A5F4-3707-48F2-91B4-9007170F5E63}" name="start_date"/>
-    <tableColumn id="4" xr3:uid="{7B803B85-4F95-47C3-A64F-3601A1EEFA10}" name="end_date" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7B803B85-4F95-47C3-A64F-3601A1EEFA10}" name="end_date" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{574CFB39-9F2B-4D26-BE8E-8BF537926940}" name="salary_sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -779,7 +743,7 @@
   <dimension ref="A1:BJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
@@ -818,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" cm="1">
-        <f t="array" ref="C5:E5">DATE($B$1,_xlfn.SEQUENCE(1,$B$3,$B$2),1)</f>
+        <f t="array" ref="C5:F5">DATE($B$1,_xlfn.SEQUENCE(1,$B$3,$B$2),1)</f>
         <v>44927</v>
       </c>
       <c r="D5" s="1">
@@ -827,7 +791,9 @@
       <c r="E5" s="1">
         <v>44986</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>45017</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -890,13 +856,16 @@
         <v>18</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6:E6">_xlfn.BYCOL(_xlfn.ANCHORARRAY(C8),_xlfn.LAMBDA(_xlpm.a,SUM(_xlpm.a)))</f>
+        <f t="array" ref="C6:F6">_xlfn.BYCOL(_xlfn.ANCHORARRAY(C8),_xlfn.LAMBDA(_xlpm.a,SUM(_xlpm.a)))</f>
         <v>1000000</v>
       </c>
       <c r="D6">
         <v>1000000</v>
       </c>
       <c r="E6">
+        <v>1500000</v>
+      </c>
+      <c r="F6">
         <v>1500000</v>
       </c>
     </row>
@@ -906,13 +875,16 @@
         <v>Founder</v>
       </c>
       <c r="C8" cm="1">
-        <f t="array" ref="C8:E15">(Employees[salary_sum])*--(DATE($B$1,_xlfn.SEQUENCE(1,$B$3,$B$2),1)&gt;=Employees[start_date])*--(DATE($B$1,_xlfn.SEQUENCE(1,$B$3,$B$2),1)&lt;Employees[end_date])</f>
+        <f t="array" ref="C8:F15">(Employees[salary_sum])*--(DATE($B$1,_xlfn.SEQUENCE(1,$B$3,$B$2),1)&gt;=Employees[start_date])*--(DATE($B$1,_xlfn.SEQUENCE(1,$B$3,$B$2),1)&lt;Employees[end_date])</f>
         <v>250000</v>
       </c>
       <c r="D8">
         <v>250000</v>
       </c>
       <c r="E8">
+        <v>250000</v>
+      </c>
+      <c r="F8">
         <v>250000</v>
       </c>
     </row>
@@ -929,6 +901,9 @@
       <c r="E9">
         <v>250000</v>
       </c>
+      <c r="F9">
+        <v>250000</v>
+      </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="str">
@@ -943,6 +918,9 @@
       <c r="E10">
         <v>250000</v>
       </c>
+      <c r="F10">
+        <v>250000</v>
+      </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="str">
@@ -957,6 +935,9 @@
       <c r="E11">
         <v>250000</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="str">
@@ -971,6 +952,9 @@
       <c r="E12">
         <v>250000</v>
       </c>
+      <c r="F12">
+        <v>250000</v>
+      </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="str">
@@ -985,6 +969,9 @@
       <c r="E13">
         <v>250000</v>
       </c>
+      <c r="F13">
+        <v>250000</v>
+      </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="str">
@@ -999,6 +986,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>250000</v>
+      </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="str">
@@ -1013,35 +1003,23 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:H5">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B15">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:BJ5">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
